--- a/Template.xlsx
+++ b/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">Adm_Code</t>
   </si>
@@ -43,13 +43,22 @@
     <t xml:space="preserve">Link_Length_Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc LINK</t>
+    <t xml:space="preserve">11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc L</t>
   </si>
   <si>
     <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbbvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
 </sst>
 </file>
@@ -59,11 +68,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,12 +89,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +133,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,84 +269,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="XFD1" s="0"/>
+      <c r="XFC1" s="1"/>
+      <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>33000021</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>21321.4</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>32132.3</v>
+      <c r="F2" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>21321.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>33000022</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>21321.4</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>32132.3</v>
-      </c>
+      <c r="F3" s="1" t="n">
+        <v>21321.4</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>21321.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>33000012</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>21321.4</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>21321.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
